--- a/spacenet/tests/quick_start/quick_start_2.xlsx
+++ b/spacenet/tests/quick_start/quick_start_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgrogan\Documents\github\spacenet-cloud\spacenet\tests\quick_start\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521CEF6E-DBC0-4537-8DDC-40F266C4721A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92B2DEF-9FF0-46A5-B1CA-A635696D2C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26970" yWindow="2220" windowWidth="25875" windowHeight="22605" activeTab="5" xr2:uid="{CA4D0872-40A5-4645-A72D-176383645A1C}"/>
+    <workbookView xWindow="20835" yWindow="5145" windowWidth="25875" windowHeight="22605" activeTab="5" xr2:uid="{CA4D0872-40A5-4645-A72D-176383645A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -105,6 +105,9 @@
     <t>Lunar South Pole</t>
   </si>
   <si>
+    <t>Surface Node</t>
+  </si>
+  <si>
     <t>origin_id</t>
   </si>
   <si>
@@ -228,12 +231,6 @@
     <t>parts_list_enabled_list</t>
   </si>
   <si>
-    <t>Surface</t>
-  </si>
-  <si>
-    <t>Flight</t>
-  </si>
-  <si>
     <t>Crewed Delivery</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>mean_time_to_failure</t>
   </si>
   <si>
-    <t>mean_repair_time</t>
-  </si>
-  <si>
     <t>mass_to_repair</t>
   </si>
   <si>
@@ -349,6 +343,12 @@
   </si>
   <si>
     <t>Power Supply Active</t>
+  </si>
+  <si>
+    <t>Flight Edge</t>
+  </si>
+  <si>
+    <t>mean_time_to_repair</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -857,21 +857,21 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -885,22 +885,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -911,10 +911,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>15500</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -940,10 +940,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -961,7 +961,7 @@
         <v>3500</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -969,10 +969,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>13000</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1066,22 +1066,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
       </c>
       <c r="D2">
         <v>401</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1121,16 +1121,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>401</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1154,19 +1154,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2582678-5ACC-41B7-9672-3475D0373149}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
@@ -1175,9 +1175,9 @@
     <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="53.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1191,46 +1191,46 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
       <c r="Q1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R1" t="s">
         <v>11</v>
@@ -1241,16 +1241,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>9021</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1282,16 +1282,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>9022</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1323,16 +1323,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>9021</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1364,16 +1364,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0.66</v>
       </c>
       <c r="R5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1396,16 +1396,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>801</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1437,16 +1437,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>803</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1471,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,25 +1491,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
         <v>86</v>
-      </c>
-      <c r="G1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,10 +1611,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1628,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1645,10 +1645,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1662,10 +1662,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -1679,10 +1679,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1696,10 +1696,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1713,10 +1713,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1730,10 +1730,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1747,10 +1747,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1805,19 +1805,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/spacenet/tests/quick_start/quick_start_2.xlsx
+++ b/spacenet/tests/quick_start/quick_start_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgrogan\Documents\github\spacenet-cloud\spacenet\tests\quick_start\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92B2DEF-9FF0-46A5-B1CA-A635696D2C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC99C987-CC72-41CB-B556-B7E76C5B7F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20835" yWindow="5145" windowWidth="25875" windowHeight="22605" activeTab="5" xr2:uid="{CA4D0872-40A5-4645-A72D-176383645A1C}"/>
+    <workbookView xWindow="2505" yWindow="4320" windowWidth="25875" windowHeight="22605" activeTab="6" xr2:uid="{CA4D0872-40A5-4645-A72D-176383645A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
   <si>
     <t>id</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>mean_time_to_repair</t>
+  </si>
+  <si>
+    <t>rate</t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2582678-5ACC-41B7-9672-3475D0373149}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8310470A-62D1-4385-B82C-853A3A4F00CF}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1485,7 @@
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1573,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C09580-2B55-4AB6-85D2-DB31177493EE}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,7 +1786,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA0B9F5-EAB2-45BD-9D78-117278B89EA3}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,7 +1844,7 @@
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1853,6 +1856,9 @@
       </c>
       <c r="D1" t="s">
         <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/spacenet/tests/quick_start/quick_start_2.xlsx
+++ b/spacenet/tests/quick_start/quick_start_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgrogan\Documents\github\spacenet-cloud\spacenet\tests\quick_start\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC99C987-CC72-41CB-B556-B7E76C5B7F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E5F1B9-8427-485A-820E-759EE2905855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="4320" windowWidth="25875" windowHeight="22605" activeTab="6" xr2:uid="{CA4D0872-40A5-4645-A72D-176383645A1C}"/>
+    <workbookView xWindow="9855" yWindow="2400" windowWidth="32970" windowHeight="25995" activeTab="4" xr2:uid="{CA4D0872-40A5-4645-A72D-176383645A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="elements" sheetId="5" r:id="rId5"/>
     <sheet name="parts" sheetId="9" r:id="rId6"/>
     <sheet name="states" sheetId="6" r:id="rId7"/>
-    <sheet name="demand_models" sheetId="7" r:id="rId8"/>
-    <sheet name="demands" sheetId="8" r:id="rId9"/>
+    <sheet name="contents" sheetId="10" r:id="rId8"/>
+    <sheet name="demand_models" sheetId="7" r:id="rId9"/>
+    <sheet name="demands" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -352,6 +353,9 @@
   </si>
   <si>
     <t>rate</t>
+  </si>
+  <si>
+    <t>container_id</t>
   </si>
 </sst>
 </file>
@@ -855,6 +859,44 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA0B9F5-EAB2-45BD-9D78-117278B89EA3}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7844D5C6-92A2-4B69-AF95-D74105C1704E}">
   <dimension ref="A1:J4"/>
@@ -1041,7 +1083,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2582678-5ACC-41B7-9672-3475D0373149}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C09580-2B55-4AB6-85D2-DB31177493EE}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1782,11 +1824,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A5412A-9814-4E1B-B088-9CA4E2D21980}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A89FF-62A8-4D27-9DD4-AC6A11DA614F}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,42 +1903,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA0B9F5-EAB2-45BD-9D78-117278B89EA3}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>